--- a/_CONCAT_DOWNER_Tauriko.xlsx
+++ b/_CONCAT_DOWNER_Tauriko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA065B2-12B2-4882-BBEE-60FC01C5DFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20529556-3498-41DC-8E04-3819FE04E68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="855" windowWidth="26730" windowHeight="18330" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="135" yWindow="375" windowWidth="24735" windowHeight="19875" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,33 +58,366 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>Earthworks Methodology</t>
-  </si>
-  <si>
-    <t>The Contractor shall submit the construction and QA methodology, for each element of Earthworks, incl construction, Site Access, dewatering, wet weather, testing, inspection and hold points for review and approval prior to works.</t>
-  </si>
-  <si>
-    <t>Engineers Approval</t>
-  </si>
-  <si>
-    <t>Appendix V</t>
-  </si>
-  <si>
-    <t>Approved Methodology</t>
-  </si>
-  <si>
-    <t>Prior to Earthworks</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>ENG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
+  <si>
+    <t>Approved JMF for Asphalt Base or Wearing Course</t>
+  </si>
+  <si>
+    <t>As Per DN1210-WSP-GCO-0160</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Before Works commence</t>
+  </si>
+  <si>
+    <t>Confirm requirements are followed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMF Validated in accordance with NZTA M/10:2020 </t>
+  </si>
+  <si>
+    <t>Mix Design Report</t>
+  </si>
+  <si>
+    <t>Paving Contractor</t>
+  </si>
+  <si>
+    <t>JMF expiry date and validation details in here</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Site Conditions</t>
+  </si>
+  <si>
+    <t>Weather suitable, Site extents marked, surface suitable for paving (Depths/milling/cleanup complete etc), Environmental Controls in place</t>
+  </si>
+  <si>
+    <t>Weather conditions and Site is suitable for paving</t>
+  </si>
+  <si>
+    <t>Site Diary</t>
+  </si>
+  <si>
+    <t>Traffic Loops</t>
+  </si>
+  <si>
+    <t>Communication with affected parties</t>
+  </si>
+  <si>
+    <t>Minimum of 7 days Before Works commence</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>Notify RC at least 7 days before surfacing is programmed</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>only required where existing traffic loops are present</t>
+  </si>
+  <si>
+    <t>Paving Plan</t>
+  </si>
+  <si>
+    <t>Paving Plan to be completed</t>
+  </si>
+  <si>
+    <t>NZTA M10: 2020 Clause 9.5.1</t>
+  </si>
+  <si>
+    <t>Paving Plan to be completed for each shift with dimensions, location and type of (hot/cold) joints, areas and tonneages</t>
+  </si>
+  <si>
+    <t>String Sheet</t>
+  </si>
+  <si>
+    <t>Temperatures</t>
+  </si>
+  <si>
+    <t>Mixing of aggregates and bitumen</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant monitoring of temperature by calibrated euipment </t>
+  </si>
+  <si>
+    <t>Plant temperature probes</t>
+  </si>
+  <si>
+    <t>PNZTA M10: 2020 states max. 170 deg.C</t>
+  </si>
+  <si>
+    <t>Plant site diary</t>
+  </si>
+  <si>
+    <t>Asphalt Manufacturer</t>
+  </si>
+  <si>
+    <t>Production Asphalt</t>
+  </si>
+  <si>
+    <t>Particle Size Distribution</t>
+  </si>
+  <si>
+    <t>1 per 200t at asphalt plant</t>
+  </si>
+  <si>
+    <t>NZS 4407_x000D_
+Test 3.8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZTA M10: 2020_x000D_
+Refer to Table 5.3 </t>
+  </si>
+  <si>
+    <t>IANZ accredited test cert</t>
+  </si>
+  <si>
+    <t>Binder Content</t>
+  </si>
+  <si>
+    <t>NZTA M10: 2020_x000D_
+Individual Test Result: ± 0.5_x000D_
+Mean of Three Test Results: ± 0.3</t>
+  </si>
+  <si>
+    <t>Max. Specific Gravity (MSG) of mix</t>
+  </si>
+  <si>
+    <t>1 per 600t at asphalt plant</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Air Voids at lab design compaction</t>
+  </si>
+  <si>
+    <t>NZTA M10: 2020:_x000D_
+Individual Test Results: +2.0, -1.0_x000D_
+Mean of Three Test Results: +1.2, -0.6</t>
+  </si>
+  <si>
+    <t>Membrane Seal</t>
+  </si>
+  <si>
+    <t>Application of Membrane Seal</t>
+  </si>
+  <si>
+    <t>Per Lot</t>
+  </si>
+  <si>
+    <t>Sealing Records</t>
+  </si>
+  <si>
+    <t>Application rate, chip type and binder as per membrane seal design</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Asphalt Delivery temperature</t>
+  </si>
+  <si>
+    <t>Every Load on delivery to the Paver Hopper</t>
+  </si>
+  <si>
+    <t>Temperature Probe</t>
+  </si>
+  <si>
+    <t>Compaction Temperature</t>
+  </si>
+  <si>
+    <t>During compaction</t>
+  </si>
+  <si>
+    <t>Temperature Probe/Infrared gauge</t>
+  </si>
+  <si>
+    <t>Site diary</t>
+  </si>
+  <si>
+    <t>Mat</t>
+  </si>
+  <si>
+    <t>Load Locate</t>
+  </si>
+  <si>
+    <t>Each load</t>
+  </si>
+  <si>
+    <t>M/10</t>
+  </si>
+  <si>
+    <t>Each load can be indentified to a location using a diagram. Record includes:_x000D_
+- Truck ID/Rego/Driver_x000D_
+- Depart Plant Time_x000D_
+- Arrive Site Time_x000D_
+- AC Temp on Arrival_x000D_
+- Tonnage_x000D_
+- Run Width_x000D_
+- Estimated Run Length_x000D_
+- Calculated Area_x000D_
+- Calculated Average Depth</t>
+  </si>
+  <si>
+    <t>Paving Run Sheet</t>
+  </si>
+  <si>
+    <t>Thickness Monitoring</t>
+  </si>
+  <si>
+    <t>Continuously</t>
+  </si>
+  <si>
+    <t>Dipping</t>
+  </si>
+  <si>
+    <t>Target Loose Thickness -0mm / +10mm</t>
+  </si>
+  <si>
+    <t>Compaction - NDM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plateau to be completed on 1st run, thereafter monitor compaction/roller passes to achieve target density._x000D_
+</t>
+  </si>
+  <si>
+    <t>Insitu density and air voids</t>
+  </si>
+  <si>
+    <t>NZTA M/10: 2020 - section 9.9</t>
+  </si>
+  <si>
+    <t>Use a calibrated NDM with established core correlation. Locate and mark cores, record NDM Bulk density by core location (including any offset used).</t>
+  </si>
+  <si>
+    <t>Compaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum of 1 mats and 1 joint </t>
+  </si>
+  <si>
+    <t>IANZ accredited test cert.</t>
+  </si>
+  <si>
+    <t>A pavement lot shall be an essentially homogeneous section of work completed within a shift of production.                                     The lot shall be divided into an_x000D_
+appropriate number of approximately equal sub-lots and a core shall be taken randomly within each sub-lot. The Engineer or their delegate shall use a random method for locating each core position, such as ASTM D5361 or a similar process.</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated average Deth from run sheet </t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>3m Straight edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where the length of the site or the geometry is such that a road roughness-measuring vehicle_x000D_
+cannot be used then the straight edge can be used for checking the surface shape. Refer NZTA M/10: 2020 - section 9.8.                                 Not more than 5mm under a 3m Straight Edge.         </t>
+  </si>
+  <si>
+    <t>Straight Edge Record</t>
+  </si>
+  <si>
+    <t>Paving Quality</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Site </t>
+  </si>
+  <si>
+    <t>As Built Survey</t>
+  </si>
+  <si>
+    <t>Survey As builts</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>Kerb to kerb</t>
+  </si>
+  <si>
+    <t>Post Paving Completion Checks</t>
+  </si>
+  <si>
+    <t>Site clear and cleanup</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Each Site/Shift</t>
+  </si>
+  <si>
+    <t>Site is cleared of plant (or parked in safe location) cleanup of all waste mix, paper and detritus is complete</t>
+  </si>
+  <si>
+    <t>Assessment of all test results for conformity</t>
+  </si>
+  <si>
+    <t>Review against ITP Requirements</t>
+  </si>
+  <si>
+    <t>For each site on the project</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Reporting of any non-conforming results to Engineer via NCR</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>RAMM pavement and surface records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMM surfacing pavement data spreadsheet updated </t>
+  </si>
+  <si>
+    <t>Prepare Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over milled and Deep lift extents recorded and verified by Contract Engineer / QA_x000D_
+Spray sheets for membrane area received by Contract Engineer from Sealing Team._x000D_
+Surfacing layer extents recorded and verified by Contract Engineer. </t>
+  </si>
+  <si>
+    <t>RAMM Spreadsheet</t>
+  </si>
+  <si>
+    <t>Target ≥ 150 deg.C. in the Paver_x000D_
+Min. ≥ 130 deg.C in the Paver                                    CHAR(LESS)130°C to be Rejected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">≥ 125°C at commencement of compaction.           CHAR(LESS) 80°C - Stop Rolling       </t>
+  </si>
+  <si>
+    <t>-0 CHAR(LESS) +5mm from Specified Level                               Where there is Kerb and Channel shall be flush with or no more than 5mm above the LOC.                                                                                                                      NZTA M/10: 2020 - section 10.2</t>
   </si>
 </sst>
 </file>
@@ -456,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:AD277"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="S238" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -471,20 +804,26 @@
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="19" width="21.42578125" customWidth="1"/>
-    <col min="20" max="20" width="8" customWidth="1"/>
-    <col min="21" max="21" width="55" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" customWidth="1"/>
+    <col min="28" max="28" width="2.28515625" customWidth="1"/>
+    <col min="29" max="29" width="2.140625" customWidth="1"/>
+    <col min="30" max="30" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -494,230 +833,3377 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="str">
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
-        <v>1.1.1 - Earthworks Methodology</v>
-      </c>
-      <c r="M2" t="str">
-        <f>"Detail - "&amp;C2</f>
-        <v>Detail - The Contractor shall submit the construction and QA methodology, for each element of Earthworks, incl construction, Site Access, dewatering, wet weather, testing, inspection and hold points for review and approval prior to works.</v>
-      </c>
-      <c r="N2" t="str">
-        <f>"Acceptance / Conformance Criteria - "&amp;D2</f>
-        <v>Acceptance / Conformance Criteria - Engineers Approval</v>
-      </c>
-      <c r="O2" t="str">
-        <f>"Standard / Specification - "&amp;E2</f>
-        <v>Standard / Specification - Appendix V</v>
-      </c>
-      <c r="P2" t="str">
-        <f>"Verifying Document - "&amp;F2</f>
-        <v>Verifying Document - Approved Methodology</v>
+        <v>1.1 - Approved JMF for Asphalt Base or Wearing Course</v>
       </c>
       <c r="Q2" t="str">
-        <f>"Testing Quantity Required (based from schedule qtys) - "&amp;G2</f>
-        <v>Testing Quantity Required (based from schedule qtys) - Prior to Earthworks</v>
+        <f>"Detail of Activity / Test - "&amp;C2</f>
+        <v>Detail of Activity / Test - As Per DN1210-WSP-GCO-0160</v>
       </c>
       <c r="R2" t="str">
-        <f>"Verification Activity: Activity - "&amp;H2</f>
-        <v>Verification Activity: Activity - HP</v>
+        <f>"Action (Hold, Monitor, Witness) - "&amp;D2</f>
+        <v>Action (Hold, Monitor, Witness) - H</v>
       </c>
       <c r="S2" t="str">
-        <f>"Verification Activity: By - "&amp;I2</f>
-        <v>Verification Activity: By - ENG</v>
-      </c>
-      <c r="U2" t="str" cm="1">
-        <f t="array" ref="U2:U9">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,L2:S40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>1.1.1 - Earthworks Methodology</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <f>"Minimum Test Frequency (Lot =  1 day’s production) - "&amp;E2</f>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Before Works commence</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"Inspection / Test method - "&amp;F2</f>
+        <v>Inspection / Test method - Confirm requirements are followed</v>
+      </c>
+      <c r="U2" t="str">
+        <f>"Acceptance Criteria - "&amp;G2</f>
+        <v xml:space="preserve">Acceptance Criteria - JMF Validated in accordance with NZTA M/10:2020 </v>
+      </c>
+      <c r="V2" t="str">
+        <f>"Record documents (QCP - Quality Control Portal) - "&amp;H2</f>
+        <v>Record documents (QCP - Quality Control Portal) - Mix Design Report</v>
+      </c>
+      <c r="W2" t="str">
+        <f>"Responsibility - "&amp;I2</f>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X2" t="str">
+        <f>"Project Specific Notes / Instructions - "&amp;J2</f>
+        <v>Project Specific Notes / Instructions - JMF expiry date and validation details in here</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>"Designer - "&amp;K2</f>
+        <v>Designer - A</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>"Eng. Rep / NZTA - "&amp;L2</f>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>"Contractor - "&amp;M2</f>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD2" t="str" cm="1">
+        <f t="array" ref="AD2:AD277">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,P2:AA40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>1.1 - Approved JMF for Asphalt Base or Wearing Course</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P24" si="0">A3&amp;" - "&amp;B3</f>
+        <v>1.2 - Site Conditions</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q24" si="1">"Detail of Activity / Test - "&amp;C3</f>
+        <v>Detail of Activity / Test - Weather suitable, Site extents marked, surface suitable for paving (Depths/milling/cleanup complete etc), Environmental Controls in place</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R24" si="2">"Action (Hold, Monitor, Witness) - "&amp;D3</f>
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S24" si="3">"Minimum Test Frequency (Lot =  1 day’s production) - "&amp;E3</f>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Before Works commence</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T24" si="4">"Inspection / Test method - "&amp;F3</f>
+        <v>Inspection / Test method - Confirm requirements are followed</v>
+      </c>
       <c r="U3" t="str">
-        <v>Detail - The Contractor shall submit the construction and QA methodology, for each element of Earthworks, incl construction, Site Access, dewatering, wet weather, testing, inspection and hold points for review and approval prior to works.</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <f t="shared" ref="U3:U24" si="5">"Acceptance Criteria - "&amp;G3</f>
+        <v>Acceptance Criteria - Weather conditions and Site is suitable for paving</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V24" si="6">"Record documents (QCP - Quality Control Portal) - "&amp;H3</f>
+        <v>Record documents (QCP - Quality Control Portal) - Site Diary</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W24" si="7">"Responsibility - "&amp;I3</f>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X24" si="8">"Project Specific Notes / Instructions - "&amp;J3</f>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y24" si="9">"Designer - "&amp;K3</f>
+        <v xml:space="preserve">Designer - </v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z24" si="10">"Eng. Rep / NZTA - "&amp;L3</f>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" ref="AA3:AA24" si="11">"Contractor - "&amp;M3</f>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>Detail of Activity / Test - As Per DN1210-WSP-GCO-0160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>1.3 - Traffic Loops</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Communication with affected parties</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Minimum of 7 days Before Works commence</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Visual</v>
+      </c>
       <c r="U4" t="str">
-        <v>Acceptance / Conformance Criteria - Engineers Approval</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Notify RC at least 7 days before surfacing is programmed</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Communication</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="8"/>
+        <v>Project Specific Notes / Instructions - only required where existing traffic loops are present</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Designer - </v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - A</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>1.4 - Paving Plan</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Paving Plan to be completed</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Before Works commence</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - NZTA M10: 2020 Clause 9.5.1</v>
+      </c>
       <c r="U5" t="str">
-        <v>Standard / Specification - Appendix V</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Paving Plan to be completed for each shift with dimensions, location and type of (hot/cold) joints, areas and tonneages</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - String Sheet</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Designer - </v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Before Works commence</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>2.1 - Temperatures</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Mixing of aggregates and bitumen</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Minimum Test Frequency (Lot =  1 day’s production) - Constant monitoring of temperature by calibrated euipment </v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Plant temperature probes</v>
+      </c>
       <c r="U6" t="str">
-        <v>Verifying Document - Approved Methodology</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - PNZTA M10: 2020 states max. 170 deg.C</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Plant site diary</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>Inspection / Test method - Confirm requirements are followed</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2 - Production Asphalt</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Particle Size Distribution</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 200t at asphalt plant</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - NZS 4407_x000D_
+Test 3.8.1</v>
+      </c>
       <c r="U7" t="str">
-        <v>Testing Quantity Required (based from schedule qtys) - Prior to Earthworks</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Acceptance Criteria - NZTA M10: 2020_x000D_
+Refer to Table 5.3 </v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD7" t="str">
+        <v>Acceptance Criteria - JMF Validated in accordance with NZTA M/10:2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>2.3 - Production Asphalt</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Binder Content</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 200t at asphalt plant</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Inspection / Test method - </v>
+      </c>
       <c r="U8" t="str">
-        <v>Verification Activity: Activity - HP</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - NZTA M10: 2020_x000D_
+Individual Test Result: ± 0.5_x000D_
+Mean of Three Test Results: ± 0.3</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Mix Design Report</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>2.4 - Production Asphalt</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Max. Specific Gravity (MSG) of mix</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 600t at asphalt plant</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Inspection / Test method - </v>
+      </c>
       <c r="U9" t="str">
-        <v>Verification Activity: By - ENG</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Report</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD9" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>2.5 - Production Asphalt</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Air Voids at lab design compaction</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 600t at asphalt plant</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">Inspection / Test method - </v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - NZTA M10: 2020:_x000D_
+Individual Test Results: +2.0, -1.0_x000D_
+Mean of Three Test Results: +1.2, -0.6</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>Project Specific Notes / Instructions - JMF expiry date and validation details in here</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>3.1 - Membrane Seal</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Application of Membrane Seal</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Per Lot</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Sealing Records</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Application rate, chip type and binder as per membrane seal design</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Sealing Records</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD11" t="str">
+        <v>Designer - A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>3.2 - Temperature</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Asphalt Delivery temperature</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Every Load on delivery to the Paver Hopper</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Temperature Probe</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Target ≥ 150 deg.C. in the Paver_x000D_
+Min. ≥ 130 deg.C in the Paver                                    CHAR(LESS)130°C to be Rejected</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Site Diary</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>3.3 - Temperature</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Compaction Temperature</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - During compaction</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Temperature Probe/Infrared gauge</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Acceptance Criteria - ≥ 125°C at commencement of compaction.           CHAR(LESS) 80°C - Stop Rolling       </v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Site diary</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD13" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3.4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>3.4 - Mat</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Load Locate</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Each load</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - M/10</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Each load can be indentified to a location using a diagram. Record includes:_x000D_
+- Truck ID/Rego/Driver_x000D_
+- Depart Plant Time_x000D_
+- Arrive Site Time_x000D_
+- AC Temp on Arrival_x000D_
+- Tonnage_x000D_
+- Run Width_x000D_
+- Estimated Run Length_x000D_
+- Calculated Area_x000D_
+- Calculated Average Depth</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Paving Run Sheet</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD14" t="str">
+        <v>1.2 - Site Conditions</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>3.5 - Mat</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Thickness Monitoring</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Continuously</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Dipping</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Target Loose Thickness -0mm / +10mm</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Record documents (QCP - Quality Control Portal) - </v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>Detail of Activity / Test - Weather suitable, Site extents marked, surface suitable for paving (Depths/milling/cleanup complete etc), Environmental Controls in place</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>3.6 - Mat</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Compaction - NDM</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Minimum Test Frequency (Lot =  1 day’s production) - Plateau to be completed on 1st run, thereafter monitor compaction/roller passes to achieve target density._x000D_
+</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Insitu density and air voids</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - NZTA M/10: 2020 - section 9.9</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">Record documents (QCP - Quality Control Portal) - </v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="8"/>
+        <v>Project Specific Notes / Instructions - Use a calibrated NDM with established core correlation. Locate and mark cores, record NDM Bulk density by core location (including any offset used).</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD16" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>3.7 - Mat</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Compaction</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Minimum Test Frequency (Lot =  1 day’s production) - Minimum of 1 mats and 1 joint </v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Insitu density and air voids</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - NZTA M/10: 2020 - section 9.9</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert.</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="8"/>
+        <v>Project Specific Notes / Instructions - A pavement lot shall be an essentially homogeneous section of work completed within a shift of production.                                     The lot shall be divided into an_x000D_
+appropriate number of approximately equal sub-lots and a core shall be taken randomly within each sub-lot. The Engineer or their delegate shall use a random method for locating each core position, such as ASTM D5361 or a similar process.</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - A</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD17" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Before Works commence</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3.8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="0"/>
+        <v>3.8 - Mat</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Thickness</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Each load</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - M/10</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Acceptance Criteria - Calculated average Deth from run sheet </v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Paving Run Sheet</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - A</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>Inspection / Test method - Confirm requirements are followed</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
+        <v>3.9 - Mat</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Shape</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Continuously</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - 3m Straight edge</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Acceptance Criteria - Where the length of the site or the geometry is such that a road roughness-measuring vehicle_x000D_
+cannot be used then the straight edge can be used for checking the surface shape. Refer NZTA M/10: 2020 - section 9.8.                                 Not more than 5mm under a 3m Straight Edge.         </v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Straight Edge Record</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD19" t="str">
+        <v>Acceptance Criteria - Weather conditions and Site is suitable for paving</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3.1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="0"/>
+        <v>3.1 - Paving Quality</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Level</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Minimum Test Frequency (Lot =  1 day’s production) - Per Site </v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - As Built Survey</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - -0 CHAR(LESS) +5mm from Specified Level                               Where there is Kerb and Channel shall be flush with or no more than 5mm above the LOC.                                                                                                                      NZTA M/10: 2020 - section 10.2</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Survey As builts</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD20" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Site Diary</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="0"/>
+        <v>3.11 - Paving Quality</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Alignment</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Minimum Test Frequency (Lot =  1 day’s production) - Per Site </v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - As Built Survey</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Kerb to kerb</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Survey As builts</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD21" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.12</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="0"/>
+        <v>3.12 - Post Paving Completion Checks</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Site clear and cleanup</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Each Site/Shift</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Visual</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Site is cleared of plant (or parked in safe location) cleanup of all waste mix, paper and detritus is complete</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - Site Diary</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">Designer - </v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="0"/>
+        <v>4.1 - Assessment of all test results for conformity</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="1"/>
+        <v>Detail of Activity / Test - Review against ITP Requirements</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - For each site on the project</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Review</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="5"/>
+        <v>Acceptance Criteria - Reporting of any non-conforming results to Engineer via NCR</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - NCR</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - A</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>Designer -</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4.2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="0"/>
+        <v>4.2 - RAMM pavement and surface records</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Detail of Activity / Test - RAMM surfacing pavement data spreadsheet updated </v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="2"/>
+        <v>Action (Hold, Monitor, Witness) - W</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="3"/>
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - For each site on the project</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="4"/>
+        <v>Inspection / Test method - Prepare Data</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">Acceptance Criteria - Over milled and Deep lift extents recorded and verified by Contract Engineer / QA_x000D_
+Spray sheets for membrane area received by Contract Engineer from Sealing Team._x000D_
+Surfacing layer extents recorded and verified by Contract Engineer. </v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="6"/>
+        <v>Record documents (QCP - Quality Control Portal) - RAMM Spreadsheet</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="7"/>
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">Project Specific Notes / Instructions - </v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="9"/>
+        <v>Designer - I</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="10"/>
+        <v>Eng. Rep / NZTA - A</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="11"/>
+        <v>Contractor - R</v>
+      </c>
+      <c r="AD24" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD25" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD26" t="str">
+        <v>1.3 - Traffic Loops</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD27" t="str">
+        <v>Detail of Activity / Test - Communication with affected parties</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD28" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD29" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Minimum of 7 days Before Works commence</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD30" t="str">
+        <v>Inspection / Test method - Visual</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD31" t="str">
+        <v>Acceptance Criteria - Notify RC at least 7 days before surfacing is programmed</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD32" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Communication</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD33" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD34" t="str">
+        <v>Project Specific Notes / Instructions - only required where existing traffic loops are present</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD35" t="str">
+        <v>Designer -</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" t="str">
+        <v>Eng. Rep / NZTA - A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD37" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD38" t="str">
+        <v>1.4 - Paving Plan</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD39" t="str">
+        <v>Detail of Activity / Test - Paving Plan to be completed</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="48" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD40" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD41" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Before Works commence</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD42" t="str">
+        <v>Inspection / Test method - NZTA M10: 2020 Clause 9.5.1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD43" t="str">
+        <v>Acceptance Criteria - Paving Plan to be completed for each shift with dimensions, location and type of (hot/cold) joints, areas and tonneages</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD44" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - String Sheet</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD45" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD46" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD47" t="str">
+        <v>Designer -</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
+      <c r="AD48" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="49" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD49" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="50" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD50" t="str">
+        <v>2.1 - Temperatures</v>
+      </c>
+    </row>
+    <row r="51" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD51" t="str">
+        <v>Detail of Activity / Test - Mixing of aggregates and bitumen</v>
+      </c>
+    </row>
+    <row r="52" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD52" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="53" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD53" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Constant monitoring of temperature by calibrated euipment</v>
+      </c>
+    </row>
+    <row r="54" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD54" t="str">
+        <v>Inspection / Test method - Plant temperature probes</v>
+      </c>
+    </row>
+    <row r="55" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD55" t="str">
+        <v>Acceptance Criteria - PNZTA M10: 2020 states max. 170 deg.C</v>
+      </c>
+    </row>
+    <row r="56" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD56" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Plant site diary</v>
+      </c>
+    </row>
+    <row r="57" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD57" t="str">
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+    </row>
+    <row r="58" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD58" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="59" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD59" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="60" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD60" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="61" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD61" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="62" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD62" t="str">
+        <v>2.2 - Production Asphalt</v>
+      </c>
+    </row>
+    <row r="63" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD63" t="str">
+        <v>Detail of Activity / Test - Particle Size Distribution</v>
+      </c>
+    </row>
+    <row r="64" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD64" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="65" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD65" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 200t at asphalt plant</v>
+      </c>
+    </row>
+    <row r="66" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD66" t="str">
+        <v>Inspection / Test method - NZS 4407
+Test 3.8.1</v>
+      </c>
+    </row>
+    <row r="67" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD67" t="str">
+        <v>Acceptance Criteria - NZTA M10: 2020
+Refer to Table 5.3</v>
+      </c>
+    </row>
+    <row r="68" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD68" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+    </row>
+    <row r="69" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD69" t="str">
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+    </row>
+    <row r="70" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD70" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="71" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD71" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="72" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD72" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="73" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD73" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="74" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD74" t="str">
+        <v>2.3 - Production Asphalt</v>
+      </c>
+    </row>
+    <row r="75" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD75" t="str">
+        <v>Detail of Activity / Test - Binder Content</v>
+      </c>
+    </row>
+    <row r="76" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD76" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="77" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD77" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 200t at asphalt plant</v>
+      </c>
+    </row>
+    <row r="78" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD78" t="str">
+        <v>Inspection / Test method -</v>
+      </c>
+    </row>
+    <row r="79" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD79" t="str">
+        <v>Acceptance Criteria - NZTA M10: 2020
+Individual Test Result: ± 0.5
+Mean of Three Test Results: ± 0.3</v>
+      </c>
+    </row>
+    <row r="80" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD80" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+    </row>
+    <row r="81" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD81" t="str">
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+    </row>
+    <row r="82" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD82" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="83" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD83" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="84" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD84" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="85" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD85" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="86" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD86" t="str">
+        <v>2.4 - Production Asphalt</v>
+      </c>
+    </row>
+    <row r="87" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD87" t="str">
+        <v>Detail of Activity / Test - Max. Specific Gravity (MSG) of mix</v>
+      </c>
+    </row>
+    <row r="88" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD88" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="89" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD89" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 600t at asphalt plant</v>
+      </c>
+    </row>
+    <row r="90" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD90" t="str">
+        <v>Inspection / Test method -</v>
+      </c>
+    </row>
+    <row r="91" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD91" t="str">
+        <v>Acceptance Criteria - Report</v>
+      </c>
+    </row>
+    <row r="92" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD92" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+    </row>
+    <row r="93" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD93" t="str">
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+    </row>
+    <row r="94" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD94" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="95" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD95" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="96" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD96" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="97" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD97" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="98" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD98" t="str">
+        <v>2.5 - Production Asphalt</v>
+      </c>
+    </row>
+    <row r="99" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD99" t="str">
+        <v>Detail of Activity / Test - Air Voids at lab design compaction</v>
+      </c>
+    </row>
+    <row r="100" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD100" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="101" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD101" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - 1 per 600t at asphalt plant</v>
+      </c>
+    </row>
+    <row r="102" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD102" t="str">
+        <v>Inspection / Test method -</v>
+      </c>
+    </row>
+    <row r="103" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD103" t="str">
+        <v>Acceptance Criteria - NZTA M10: 2020:
+Individual Test Results: +2.0, -1.0
+Mean of Three Test Results: +1.2, -0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD104" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert</v>
+      </c>
+    </row>
+    <row r="105" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD105" t="str">
+        <v>Responsibility - Asphalt Manufacturer</v>
+      </c>
+    </row>
+    <row r="106" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD106" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="107" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD107" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="108" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD108" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="109" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD109" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="110" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD110" t="str">
+        <v>3.1 - Membrane Seal</v>
+      </c>
+    </row>
+    <row r="111" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD111" t="str">
+        <v>Detail of Activity / Test - Application of Membrane Seal</v>
+      </c>
+    </row>
+    <row r="112" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD112" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="113" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD113" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Per Lot</v>
+      </c>
+    </row>
+    <row r="114" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD114" t="str">
+        <v>Inspection / Test method - Sealing Records</v>
+      </c>
+    </row>
+    <row r="115" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD115" t="str">
+        <v>Acceptance Criteria - Application rate, chip type and binder as per membrane seal design</v>
+      </c>
+    </row>
+    <row r="116" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD116" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Sealing Records</v>
+      </c>
+    </row>
+    <row r="117" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD117" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="118" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD118" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="119" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD119" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="120" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD120" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="121" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD121" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="122" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD122" t="str">
+        <v>3.2 - Temperature</v>
+      </c>
+    </row>
+    <row r="123" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD123" t="str">
+        <v>Detail of Activity / Test - Asphalt Delivery temperature</v>
+      </c>
+    </row>
+    <row r="124" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD124" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="125" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD125" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Every Load on delivery to the Paver Hopper</v>
+      </c>
+    </row>
+    <row r="126" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD126" t="str">
+        <v>Inspection / Test method - Temperature Probe</v>
+      </c>
+    </row>
+    <row r="127" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD127" t="str">
+        <v>Acceptance Criteria - Target ≥ 150 deg.C. in the Paver
+Min. ≥ 130 deg.C in the Paver                                    CHAR(LESS)130°C to be Rejected</v>
+      </c>
+    </row>
+    <row r="128" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD128" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Site Diary</v>
+      </c>
+    </row>
+    <row r="129" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD129" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="130" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD130" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="131" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD131" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="132" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD132" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="133" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD133" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="134" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD134" t="str">
+        <v>3.3 - Temperature</v>
+      </c>
+    </row>
+    <row r="135" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD135" t="str">
+        <v>Detail of Activity / Test - Compaction Temperature</v>
+      </c>
+    </row>
+    <row r="136" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD136" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="137" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD137" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - During compaction</v>
+      </c>
+    </row>
+    <row r="138" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD138" t="str">
+        <v>Inspection / Test method - Temperature Probe/Infrared gauge</v>
+      </c>
+    </row>
+    <row r="139" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD139" t="str">
+        <v>Acceptance Criteria - ≥ 125°C at commencement of compaction.           CHAR(LESS) 80°C - Stop Rolling</v>
+      </c>
+    </row>
+    <row r="140" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD140" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Site diary</v>
+      </c>
+    </row>
+    <row r="141" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD141" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="142" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD142" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="143" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD143" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="144" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD144" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="145" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD145" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="146" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD146" t="str">
+        <v>3.4 - Mat</v>
+      </c>
+    </row>
+    <row r="147" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD147" t="str">
+        <v>Detail of Activity / Test - Load Locate</v>
+      </c>
+    </row>
+    <row r="148" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD148" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="149" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD149" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Each load</v>
+      </c>
+    </row>
+    <row r="150" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD150" t="str">
+        <v>Inspection / Test method - M/10</v>
+      </c>
+    </row>
+    <row r="151" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD151" t="str">
+        <v>Acceptance Criteria - Each load can be indentified to a location using a diagram. Record includes:
+- Truck ID/Rego/Driver
+- Depart Plant Time
+- Arrive Site Time
+- AC Temp on Arrival
+- Tonnage
+- Run Width
+- Estimated Run Length
+- Calculated Area
+- Calculated Average Depth</v>
+      </c>
+    </row>
+    <row r="152" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD152" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Paving Run Sheet</v>
+      </c>
+    </row>
+    <row r="153" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD153" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="154" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD154" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="155" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD155" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="156" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD156" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="157" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD157" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="158" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD158" t="str">
+        <v>3.5 - Mat</v>
+      </c>
+    </row>
+    <row r="159" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD159" t="str">
+        <v>Detail of Activity / Test - Thickness Monitoring</v>
+      </c>
+    </row>
+    <row r="160" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD160" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="161" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD161" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Continuously</v>
+      </c>
+    </row>
+    <row r="162" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD162" t="str">
+        <v>Inspection / Test method - Dipping</v>
+      </c>
+    </row>
+    <row r="163" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD163" t="str">
+        <v>Acceptance Criteria - Target Loose Thickness -0mm / +10mm</v>
+      </c>
+    </row>
+    <row r="164" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD164" t="str">
+        <v>Record documents (QCP - Quality Control Portal) -</v>
+      </c>
+    </row>
+    <row r="165" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD165" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="166" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD166" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="167" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD167" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="168" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD168" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="169" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD169" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="170" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD170" t="str">
+        <v>3.6 - Mat</v>
+      </c>
+    </row>
+    <row r="171" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD171" t="str">
+        <v>Detail of Activity / Test - Compaction - NDM</v>
+      </c>
+    </row>
+    <row r="172" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD172" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="173" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD173" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Plateau to be completed on 1st run, thereafter monitor compaction/roller passes to achieve target density.</v>
+      </c>
+    </row>
+    <row r="174" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD174" t="str">
+        <v>Inspection / Test method - Insitu density and air voids</v>
+      </c>
+    </row>
+    <row r="175" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD175" t="str">
+        <v>Acceptance Criteria - NZTA M/10: 2020 - section 9.9</v>
+      </c>
+    </row>
+    <row r="176" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD176" t="str">
+        <v>Record documents (QCP - Quality Control Portal) -</v>
+      </c>
+    </row>
+    <row r="177" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD177" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="178" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD178" t="str">
+        <v>Project Specific Notes / Instructions - Use a calibrated NDM with established core correlation. Locate and mark cores, record NDM Bulk density by core location (including any offset used).</v>
+      </c>
+    </row>
+    <row r="179" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD179" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="180" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD180" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="181" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD181" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="182" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD182" t="str">
+        <v>3.7 - Mat</v>
+      </c>
+    </row>
+    <row r="183" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD183" t="str">
+        <v>Detail of Activity / Test - Compaction</v>
+      </c>
+    </row>
+    <row r="184" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD184" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="185" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD185" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Minimum of 1 mats and 1 joint</v>
+      </c>
+    </row>
+    <row r="186" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD186" t="str">
+        <v>Inspection / Test method - Insitu density and air voids</v>
+      </c>
+    </row>
+    <row r="187" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD187" t="str">
+        <v>Acceptance Criteria - NZTA M/10: 2020 - section 9.9</v>
+      </c>
+    </row>
+    <row r="188" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD188" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - IANZ accredited test cert.</v>
+      </c>
+    </row>
+    <row r="189" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD189" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="190" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD190" t="str">
+        <v>Project Specific Notes / Instructions - A pavement lot shall be an essentially homogeneous section of work completed within a shift of production.                                     The lot shall be divided into an
+appropriate number of approximately equal sub-lots and a core shall be taken randomly within each sub-lot. The Engineer or their delegate shall use a random method for locating each core position, such as ASTM D5361 or a similar process.</v>
+      </c>
+    </row>
+    <row r="191" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD191" t="str">
+        <v>Designer - A</v>
+      </c>
+    </row>
+    <row r="192" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD192" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="193" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD193" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="194" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD194" t="str">
+        <v>3.8 - Mat</v>
+      </c>
+    </row>
+    <row r="195" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD195" t="str">
+        <v>Detail of Activity / Test - Thickness</v>
+      </c>
+    </row>
+    <row r="196" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD196" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="197" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD197" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Each load</v>
+      </c>
+    </row>
+    <row r="198" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD198" t="str">
+        <v>Inspection / Test method - M/10</v>
+      </c>
+    </row>
+    <row r="199" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD199" t="str">
+        <v>Acceptance Criteria - Calculated average Deth from run sheet</v>
+      </c>
+    </row>
+    <row r="200" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD200" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Paving Run Sheet</v>
+      </c>
+    </row>
+    <row r="201" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD201" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="202" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD202" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="203" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD203" t="str">
+        <v>Designer - A</v>
+      </c>
+    </row>
+    <row r="204" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD204" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="205" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD205" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="206" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD206" t="str">
+        <v>3.9 - Mat</v>
+      </c>
+    </row>
+    <row r="207" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD207" t="str">
+        <v>Detail of Activity / Test - Shape</v>
+      </c>
+    </row>
+    <row r="208" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD208" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="209" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD209" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Continuously</v>
+      </c>
+    </row>
+    <row r="210" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD210" t="str">
+        <v>Inspection / Test method - 3m Straight edge</v>
+      </c>
+    </row>
+    <row r="211" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD211" t="str">
+        <v>Acceptance Criteria - Where the length of the site or the geometry is such that a road roughness-measuring vehicle
+cannot be used then the straight edge can be used for checking the surface shape. Refer NZTA M/10: 2020 - section 9.8.                                 Not more than 5mm under a 3m Straight Edge.</v>
+      </c>
+    </row>
+    <row r="212" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD212" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Straight Edge Record</v>
+      </c>
+    </row>
+    <row r="213" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD213" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="214" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD214" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="215" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD215" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="216" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD216" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="217" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD217" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="218" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD218" t="str">
+        <v>3.1 - Paving Quality</v>
+      </c>
+    </row>
+    <row r="219" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD219" t="str">
+        <v>Detail of Activity / Test - Level</v>
+      </c>
+    </row>
+    <row r="220" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD220" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="221" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD221" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Per Site</v>
+      </c>
+    </row>
+    <row r="222" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD222" t="str">
+        <v>Inspection / Test method - As Built Survey</v>
+      </c>
+    </row>
+    <row r="223" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD223" t="str">
+        <v>Acceptance Criteria - -0 CHAR(LESS) +5mm from Specified Level                               Where there is Kerb and Channel shall be flush with or no more than 5mm above the LOC.                                                                                                                      NZTA M/10: 2020 - section 10.2</v>
+      </c>
+    </row>
+    <row r="224" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD224" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Survey As builts</v>
+      </c>
+    </row>
+    <row r="225" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD225" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="226" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD226" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="227" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD227" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="228" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD228" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="229" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD229" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="230" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD230" t="str">
+        <v>3.11 - Paving Quality</v>
+      </c>
+    </row>
+    <row r="231" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD231" t="str">
+        <v>Detail of Activity / Test - Alignment</v>
+      </c>
+    </row>
+    <row r="232" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD232" t="str">
+        <v>Action (Hold, Monitor, Witness) - M</v>
+      </c>
+    </row>
+    <row r="233" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD233" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Per Site</v>
+      </c>
+    </row>
+    <row r="234" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD234" t="str">
+        <v>Inspection / Test method - As Built Survey</v>
+      </c>
+    </row>
+    <row r="235" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD235" t="str">
+        <v>Acceptance Criteria - Kerb to kerb</v>
+      </c>
+    </row>
+    <row r="236" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD236" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Survey As builts</v>
+      </c>
+    </row>
+    <row r="237" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD237" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="238" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD238" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="239" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD239" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="240" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD240" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="241" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD241" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="242" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD242" t="str">
+        <v>3.12 - Post Paving Completion Checks</v>
+      </c>
+    </row>
+    <row r="243" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD243" t="str">
+        <v>Detail of Activity / Test - Site clear and cleanup</v>
+      </c>
+    </row>
+    <row r="244" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD244" t="str">
+        <v>Action (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="245" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD245" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - Each Site/Shift</v>
+      </c>
+    </row>
+    <row r="246" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD246" t="str">
+        <v>Inspection / Test method - Visual</v>
+      </c>
+    </row>
+    <row r="247" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD247" t="str">
+        <v>Acceptance Criteria - Site is cleared of plant (or parked in safe location) cleanup of all waste mix, paper and detritus is complete</v>
+      </c>
+    </row>
+    <row r="248" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD248" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - Site Diary</v>
+      </c>
+    </row>
+    <row r="249" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD249" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="250" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD250" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="251" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD251" t="str">
+        <v>Designer -</v>
+      </c>
+    </row>
+    <row r="252" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD252" t="str">
+        <v>Eng. Rep / NZTA - I</v>
+      </c>
+    </row>
+    <row r="253" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD253" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="254" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD254" t="str">
+        <v>4.1 - Assessment of all test results for conformity</v>
+      </c>
+    </row>
+    <row r="255" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD255" t="str">
+        <v>Detail of Activity / Test - Review against ITP Requirements</v>
+      </c>
+    </row>
+    <row r="256" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD256" t="str">
+        <v>Action (Hold, Monitor, Witness) - H</v>
+      </c>
+    </row>
+    <row r="257" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD257" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - For each site on the project</v>
+      </c>
+    </row>
+    <row r="258" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD258" t="str">
+        <v>Inspection / Test method - Review</v>
+      </c>
+    </row>
+    <row r="259" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD259" t="str">
+        <v>Acceptance Criteria - Reporting of any non-conforming results to Engineer via NCR</v>
+      </c>
+    </row>
+    <row r="260" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD260" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - NCR</v>
+      </c>
+    </row>
+    <row r="261" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD261" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="262" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD262" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="263" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD263" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="264" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD264" t="str">
+        <v>Eng. Rep / NZTA - A</v>
+      </c>
+    </row>
+    <row r="265" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD265" t="str">
+        <v>Contractor - R</v>
+      </c>
+    </row>
+    <row r="266" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD266" t="str">
+        <v>4.2 - RAMM pavement and surface records</v>
+      </c>
+    </row>
+    <row r="267" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD267" t="str">
+        <v>Detail of Activity / Test - RAMM surfacing pavement data spreadsheet updated</v>
+      </c>
+    </row>
+    <row r="268" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD268" t="str">
+        <v>Action (Hold, Monitor, Witness) - W</v>
+      </c>
+    </row>
+    <row r="269" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD269" t="str">
+        <v>Minimum Test Frequency (Lot =  1 day’s production) - For each site on the project</v>
+      </c>
+    </row>
+    <row r="270" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD270" t="str">
+        <v>Inspection / Test method - Prepare Data</v>
+      </c>
+    </row>
+    <row r="271" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD271" t="str">
+        <v>Acceptance Criteria - Over milled and Deep lift extents recorded and verified by Contract Engineer / QA
+Spray sheets for membrane area received by Contract Engineer from Sealing Team.
+Surfacing layer extents recorded and verified by Contract Engineer.</v>
+      </c>
+    </row>
+    <row r="272" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD272" t="str">
+        <v>Record documents (QCP - Quality Control Portal) - RAMM Spreadsheet</v>
+      </c>
+    </row>
+    <row r="273" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD273" t="str">
+        <v>Responsibility - Paving Contractor</v>
+      </c>
+    </row>
+    <row r="274" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD274" t="str">
+        <v>Project Specific Notes / Instructions -</v>
+      </c>
+    </row>
+    <row r="275" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD275" t="str">
+        <v>Designer - I</v>
+      </c>
+    </row>
+    <row r="276" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD276" t="str">
+        <v>Eng. Rep / NZTA - A</v>
+      </c>
+    </row>
+    <row r="277" spans="30:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD277" t="str">
+        <v>Contractor - R</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
